--- a/global_data/day_data/603119.xlsx
+++ b/global_data/day_data/603119.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12646,6 +12648,64 @@
         <v>0.0889760398303541</v>
       </c>
     </row>
+    <row r="423" spans="1:9">
+      <c r="A423" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B423">
+        <v>44.99</v>
+      </c>
+      <c r="C423">
+        <v>46.02</v>
+      </c>
+      <c r="D423">
+        <v>43.8</v>
+      </c>
+      <c r="E423">
+        <v>44.88</v>
+      </c>
+      <c r="F423">
+        <v>15914480</v>
+      </c>
+      <c r="G423">
+        <v>716569658</v>
+      </c>
+      <c r="H423">
+        <v>203879483</v>
+      </c>
+      <c r="I423">
+        <v>0.07805827131708</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B424">
+        <v>45.3</v>
+      </c>
+      <c r="C424">
+        <v>49.28</v>
+      </c>
+      <c r="D424">
+        <v>44.94</v>
+      </c>
+      <c r="E424">
+        <v>48.04</v>
+      </c>
+      <c r="F424">
+        <v>24640650</v>
+      </c>
+      <c r="G424">
+        <v>1161507587</v>
+      </c>
+      <c r="H424">
+        <v>203879483</v>
+      </c>
+      <c r="I424">
+        <v>0.1208588997648184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
